--- a/Emission_Drone/Propulsion_options.xlsx
+++ b/Emission_Drone/Propulsion_options.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stein\PycharmProjects\DSE_AEMS\Emission_Drone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814CE9E1-88C4-4139-BE4F-D6F2020CBA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA910076-7B80-497F-8AA8-6147BA7EA200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3289,7 +3289,7 @@
   <dimension ref="B3:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
